--- a/Data Collection/Authors/Lukas Bärfuss/Bärfuss_all_2021.xlsx
+++ b/Data Collection/Authors/Lukas Bärfuss/Bärfuss_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Authors\Lukas Bärfuss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Lukas Bärfuss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B9BE1-8761-4108-AAFD-4666397ADB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1F88D-567C-4B84-ACB8-565D1755EE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,13 +1100,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1133,20 +1145,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,11 +1447,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1797,29 +1821,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1849,26 +1873,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1924,29 +1948,29 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2002,29 +2026,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2080,29 +2104,29 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2132,55 +2156,55 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2288,29 +2312,29 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2369,32 +2393,32 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="7">
         <v>44297.794925631402</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2685,32 +2709,32 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="7">
         <v>44306.79296942112</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2769,90 +2793,90 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="7">
         <v>44306.792969455797</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H51" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="7">
         <v>44299.792969467373</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="H52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="7">
         <v>44306.792969478949</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H53" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>266</v>
       </c>
     </row>

--- a/Data Collection/Authors/Lukas Bärfuss/Bärfuss_all_2021.xlsx
+++ b/Data Collection/Authors/Lukas Bärfuss/Bärfuss_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Lukas Bärfuss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Lukas Bärfuss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1F88D-567C-4B84-ACB8-565D1755EE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{68F1F88D-567C-4B84-ACB8-565D1755EE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79EDC992-3E57-408D-A57E-DCD59FDE899F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="246">
   <si>
     <t>100 Jahre Dürrenmatt - Universität Bern ernennt Lukas Bärfuss als Friedrich Dürrenmatt Gastprofessor | St.Galler Tagblatt</t>
   </si>
@@ -33,16 +33,10 @@
     <t>St. Galler Tagblatt</t>
   </si>
   <si>
-    <t>12 Jan 2021</t>
-  </si>
-  <si>
     <t>Der Schriftsteller Lukas Bärfuss wird an der Universität Bern als «Friedrich Dürrenmatt Gastprofessor für Weltliteratur» lehren. Die Ernennung erfolgt anlässlich ...</t>
   </si>
   <si>
     <t>https://www.tagblatt.ch/news-service/kultur/100-jahre-duerrenmatt-lukas-baerfuss-als-friedrich-duerrenmatt-gastprofessor-an-uni-bern-ernannt-ld.2084829</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>100 Jahre Dürrenmatt Universität Bern ernennt Lukas Bärfuss als Friedrich Dürrenmatt Gastprofessor Der Schriftsteller Lukas Bärfuss wird an der Universität Bern als «Friedrich Dürrenmatt Gastprofessor für Weltliteratur» lehren.
@@ -58,9 +52,6 @@
     <t>Süddeutsche Zeitung</t>
   </si>
   <si>
-    <t>13 Jan 2021</t>
-  </si>
-  <si>
     <t>Der Schriftsteller Lukas Bärfuss. (Foto: Boris Roessler/dpa). Meine beste Strategie gegen Depression und Entmutigung? Die schonungslose Konfrontation mit der ...</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
   </si>
   <si>
     <t>Kath.ch</t>
-  </si>
-  <si>
-    <t>14 Jan 2021</t>
   </si>
   <si>
     <t>Lukas Bärfuss: «Der religiöse Duktus ist der Singsang unserer Zeit». «Feinde der offenen Gesellschaft freuen sich über die Naivität des Westens. Die Einzigen ...</t>
@@ -100,9 +88,6 @@
     <t>Blick</t>
   </si>
   <si>
-    <t>10 Jan 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss über den Sturm aufs Kapitol. Das falsche Staunen. 16.04.2021, 18:23 Uhr. Der Sturm auf das Kapitol hatte sich schon lange angekündigt – woher ...</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>Bärfuss: «Nichts ist so traurig wie ein Mann mit einem Noise ...</t>
   </si>
   <si>
-    <t>7 Jan 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss sehnt sich) nach ethisch verbindlichen Massstäben, die auch in der Literatur sichtbar werden. Das zeigt sich nicht zuletzt an seinem Wunsch nach ...</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>NDR</t>
   </si>
   <si>
-    <t>4 Jan 2021</t>
-  </si>
-  <si>
     <t>... Gegenwartsliteratur wie Büchner-Preisträger Lukas Bärfuss oder Daniela Danz veröffentlicht. Heute beschäftigt der Verlag 28 Mitarbeiterinnen und Mitarbeiter ...</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>Rhein Neckar Fernsehen</t>
   </si>
   <si>
-    <t>3 Jan 2021</t>
-  </si>
-  <si>
     <t>Auch bei den Nibelungen-Festspielen 2021 steht Luther (1483-1546) im Mittelpunkt. Das Stück schreibt der Schweizer Schriftsteller Lukas Bärfuss, Regie führt die ...</t>
   </si>
   <si>
@@ -204,9 +180,6 @@
     <t>ZDF</t>
   </si>
   <si>
-    <t>5 Jan 2021</t>
-  </si>
-  <si>
     <t>Autor Lukas Bärfuss "Hätte mir Obdachlosigkeit gerne erspart". Stuckrad. Suter und Stuckrad-Barre bei "Lanz" "Zufallsbegegnung im Strandkorb am Meer".</t>
   </si>
   <si>
@@ -242,9 +215,6 @@
     <t>FAZ</t>
   </si>
   <si>
-    <t>17 Jan 2021</t>
-  </si>
-  <si>
     <t>Es gibt nichts Traurigeres als Menschen, die sich absondern: In seinem dritten Essayband fordert Lukas Bärfuss Solidarität und verbindliche Maßstäbe – auch ...</t>
   </si>
   <si>
@@ -264,9 +234,6 @@
     <t>MEDIENWOCHE</t>
   </si>
   <si>
-    <t>16 Jan 2021</t>
-  </si>
-  <si>
     <t>The Bad – Bärfuss und die Sargnägel. Vom Sturm aufs Kapitol bis zu den letzten Sargnägeln für die SRG dauert es bei der Lektüre von Lukas Bärfuss nur zwei ...</t>
   </si>
   <si>
@@ -286,9 +253,6 @@
     <t>Luzerner Zeitung</t>
   </si>
   <si>
-    <t>25 Jan 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss hat 2016 in einem Gespräch in der «Frankfurter Allgemeine Zeitung»das, was ich anspreche, wie folgt auf den Punkt gebracht (am Beispiel der ...</t>
   </si>
   <si>
@@ -308,9 +272,6 @@
     <t>Deutschlandfunk Kultur</t>
   </si>
   <si>
-    <t>24 Jan 2021</t>
-  </si>
-  <si>
     <t>Politische Essays von Lukas Bärfuss – Plädoyer für die Trauer (Deutschlandfunk Kultur, Lesart, 15.12.2020). Nähe in der Hospizpflege trotz Corona – Die Angst ...</t>
   </si>
   <si>
@@ -327,9 +288,6 @@
     <t>Das sind die Gewinner des Jahres 2020 – kath.ch</t>
   </si>
   <si>
-    <t>29 Jan 2021</t>
-  </si>
-  <si>
     <t>In Windeseile stampfte er neue Formate aus dem Boden, zum Teil mit Promis wie Susanne Wille und Lukas Bärfuss. Am theologischen Profil konnte der ...</t>
   </si>
   <si>
@@ -349,9 +307,6 @@
     <t>Nau</t>
   </si>
   <si>
-    <t>21 Jan 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss wird Friedrich Dürrenmatt Gastprofessor · Autoren-Jubiläum - Friedrich Dürrenmatt wäre heute 100 Jahre alt ...</t>
   </si>
   <si>
@@ -362,9 +317,6 @@
   </si>
   <si>
     <t>Meine Südstadt</t>
-  </si>
-  <si>
-    <t>26 Jan 2021</t>
   </si>
   <si>
     <t>... zu bewerben, lade man inzwischen über soziale Medien zu Veranstaltungen mit Autoren wie Lukas Bärfuss, Feridun Zaimoglu und Norbert Scheuer ein.</t>
@@ -424,9 +376,6 @@
     <t>persoenlich.com</t>
   </si>
   <si>
-    <t>14 Feb 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss, einer der bekanntesten Schweizer Schriftsteller und Dramaturgen, ärgert sich über die Titelgebung seines Interviews in den Tamedia-Zeitungen.</t>
   </si>
   <si>
@@ -443,9 +392,6 @@
     <t>Lukas Bärfuss über Demut und ein Jahr Corona</t>
   </si>
   <si>
-    <t>7 Feb 2021</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss über Demut und ein Jahr Corona. Überheblichkeit ist tödlich. 12.03.2021, 18:05 Uhr. Vor zwölf Monaten änderte sich unser Leben von Grund auf.</t>
   </si>
   <si>
@@ -465,9 +411,6 @@
     <t>Die Rheinpfalz</t>
   </si>
   <si>
-    <t>9 Feb 2021</t>
-  </si>
-  <si>
     <t>... und Georg-Büchner-Preisträger Lukas Bärfuss, Regie führt die Ungarin Ildikó ... Laut Thomas Laue, Künstlerischer Leiter der Festspiele, soll es in Bärfuss' ...</t>
   </si>
   <si>
@@ -487,9 +430,6 @@
     <t>Presseportal</t>
   </si>
   <si>
-    <t>11 Feb 2021</t>
-  </si>
-  <si>
     <t>Sie zeigen in einer Uraufführung das Stück "Luther" von Lukas Bärfuss an Originalschauplätzen. Am 3. Juli wird zudem die Landesausstellung "Hier stehe ich.</t>
   </si>
   <si>
@@ -509,9 +449,6 @@
     <t>Der Bund</t>
   </si>
   <si>
-    <t>8 Feb 2021</t>
-  </si>
-  <si>
     <t>Lukas Baerfuss, Schriftsteller, Buehnenautor, Dramaturg und ... AboInterview mit Lukas Bärfuss«Die vielen Toten sind eine Folge des Mangels an Demut und ...</t>
   </si>
   <si>
@@ -528,9 +465,6 @@
     <t>Diese 7 Wörter benutzen wir alle falsch</t>
   </si>
   <si>
-    <t>5 Feb 2021</t>
-  </si>
-  <si>
     <t>Diese italienische Wörter sprechen wir alle falsch aus. Expresso gefälllig? Diese italienischen Wörter sprechen Schweizer falsch aus · Lukas Bärfuss fordert den ...</t>
   </si>
   <si>
@@ -547,9 +481,6 @@
     <t>Das sind die Professoren des Jahres 2020 – kath.ch</t>
   </si>
   <si>
-    <t>3 Feb 2021</t>
-  </si>
-  <si>
     <t>Ähnlich wie der Schweizer Star-Autor Lukas Bärfuss kritisierte Peter Kirchschläger relativ früh die wirtschaftsfreundlichen Massnahmen während des ersten ...</t>
   </si>
   <si>
@@ -601,9 +532,6 @@
     <t>Literaturkritik.de</t>
   </si>
   <si>
-    <t>19 Feb 2021</t>
-  </si>
-  <si>
     <t>Jürgen Heimbach hat seinem neuen Roman Vorboten ein Zitat aus der Büchner-Preis-Rede von Lukas Bärfuss vorangestellt: „Wer den letzten Krieg vergisst, ...</t>
   </si>
   <si>
@@ -620,9 +548,6 @@
     <t>Literatur aus Grossbritannien – Sie zeigt die vielen Gesichter ...</t>
   </si>
   <si>
-    <t>22 Feb 2021</t>
-  </si>
-  <si>
     <t>https://www.derbund.ch/sie-zeigt-die-vielen-gesichter-des-rassismus-171983692062</t>
   </si>
   <si>
@@ -639,9 +564,6 @@
     <t>Seniorweb</t>
   </si>
   <si>
-    <t>11 Mar 2021</t>
-  </si>
-  <si>
     <t>... Brecht, Frisch und Dürrenmatt, aber auch von Vaclav Havel, Thomas Hürlimann, Hansjörg Schneider, Botho Strauss, Elfriede Jelinek und Lukas Bärfuss?</t>
   </si>
   <si>
@@ -674,9 +596,6 @@
     <t>Rezension: Jürgen Prott, «Konfliktfall Solidarität», Steidl</t>
   </si>
   <si>
-    <t>14 Mar 2021</t>
-  </si>
-  <si>
     <t>https://www.blick.ch/meinung/kolumnen/zur-sache-neue-non-fiction-buecher-der-begriff-solidaritaet-hat-im-corona-jahr-hochkonjunktur-id16397295.html</t>
   </si>
   <si>
@@ -709,9 +628,6 @@
     <t>DerStandard</t>
   </si>
   <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
     <t>... der Schweizer Schriftsteller und Büchner-Preis-Träger von 2019 Lukas Bärfuss, von dem zuletzt die Essaysammlung Die Krone der Schöpfung erschienen ist.</t>
   </si>
   <si>
@@ -887,9 +803,6 @@
     <t>Lukas Bärfuss fordert den Rücktritt von Ignazio Cassis und Alain Berset</t>
   </si>
   <si>
-    <t>3 weeks ago</t>
-  </si>
-  <si>
     <t>Lukas Bärfuss fordert den Rücktritt von Ignazio Cassis und Alain Berset. Lukas Bärfuss. Berset und Cassis sollten zurücktreten.</t>
   </si>
   <si>
@@ -939,9 +852,6 @@
     <t>zentralplus</t>
   </si>
   <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
     <t>Zu den angekündigten «weltliche Predigerinnen und Prediger» gehören etwa der Zuger Nationalrat und Mitte-Präsident Gerhard Pfister, Autor Lukas Bärfuss, ...</t>
   </si>
   <si>
@@ -954,9 +864,6 @@
   </si>
   <si>
     <t>Die Predigt – kath.ch</t>
-  </si>
-  <si>
-    <t>1 week ago</t>
   </si>
   <si>
     <t>Apéro. 30. Mai Predigt: Gerhard Pfister, Präsident Die Mitte; Musik: Helen Maier, Violine Sonntag,. 20. Juni Predigt: Lukas Bärfuss, ...</t>
@@ -994,9 +901,6 @@
     <t>NZZ</t>
   </si>
   <si>
-    <t>4 weeks ago</t>
-  </si>
-  <si>
     <t>In nächster Zeit stehen etwa Lesungen mit Rainer Moritz oder ein Spaziergang mit Lukas Bärfuss an. 15 Personen werden den Büchner-Preis-Träger begleiten ...</t>
   </si>
   <si>
@@ -1029,9 +933,6 @@
     <t>Meilenstein deutscher Literatur – Basler Narrenschiff – ahoi!</t>
   </si>
   <si>
-    <t>1 day ago</t>
-  </si>
-  <si>
     <t>Das schafft heute keiner mehr, kein Lukas Bärfuss, kein Martin Suter, keine Herta Müller. Manchem Gegenwartsnarren im Jahr 2021 mag Basel zu behäbig, ...</t>
   </si>
   <si>
@@ -1054,19 +955,16 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +972,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1121,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1144,25 +1042,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1445,45 +1360,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>240</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1493,1478 +1405,1263 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8">
+        <v>44208</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44209</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44221</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9">
+        <v>44220</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44225</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>88</v>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="9">
+        <v>44217</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="9">
+        <v>44217</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44241</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>120</v>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="9">
+        <v>44236</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+        <v>111</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44235</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>137</v>
+      <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44232</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44230</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>120</v>
+      <c r="B28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="9">
+        <v>44236</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+        <v>125</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>132</v>
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9">
+        <v>44235</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44246</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D32" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+        <v>49</v>
+      </c>
+      <c r="D33" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>175</v>
+      <c r="B34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9">
+        <v>44269</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="3">
+        <v>156</v>
+      </c>
+      <c r="D36" s="8">
         <v>44297.79492560825</v>
       </c>
-      <c r="F36" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="B37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="9">
         <v>44297.794925631402</v>
       </c>
+      <c r="E37" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="3">
+        <v>166</v>
+      </c>
+      <c r="D38" s="8">
         <v>44297.794925654562</v>
       </c>
-      <c r="F38" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="3">
+        <v>101</v>
+      </c>
+      <c r="D39" s="8">
         <v>44297.793999886831</v>
       </c>
-      <c r="F39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8">
         <v>44297.793999909984</v>
       </c>
-      <c r="F40" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="3">
+        <v>132</v>
+      </c>
+      <c r="D41" s="8">
         <v>44297.793999933107</v>
       </c>
-      <c r="F41" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="8">
+        <v>44297.793999956259</v>
+      </c>
+      <c r="E42" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="3">
-        <v>44297.793999956259</v>
-      </c>
-      <c r="F42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H42" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="3">
+        <v>188</v>
+      </c>
+      <c r="D43" s="8">
         <v>44297.793999967827</v>
       </c>
-      <c r="F43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="3">
+        <v>193</v>
+      </c>
+      <c r="D44" s="8">
         <v>44297.794000002577</v>
       </c>
-      <c r="F44" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="3">
+        <v>82</v>
+      </c>
+      <c r="D45" s="8">
         <v>44297.794000025729</v>
       </c>
-      <c r="F45" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H45" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" s="3">
+        <v>16</v>
+      </c>
+      <c r="D46" s="8">
         <v>44306.792969386341</v>
       </c>
-      <c r="F46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H46" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="3">
+        <v>205</v>
+      </c>
+      <c r="D47" s="8">
         <v>44306.792969397931</v>
       </c>
-      <c r="F47" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="B48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="9">
         <v>44306.79296942112</v>
       </c>
+      <c r="E48" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="F48" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" s="3">
+        <v>214</v>
+      </c>
+      <c r="D49" s="8">
         <v>44313.792969432652</v>
       </c>
-      <c r="F49" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H49" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" t="s">
-        <v>249</v>
-      </c>
-      <c r="E50" s="3">
+        <v>218</v>
+      </c>
+      <c r="D50" s="8">
         <v>44320.792969444221</v>
       </c>
-      <c r="F50" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="B51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="9">
+        <v>44306.792969455797</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="9">
+        <v>44299.792969467373</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="7">
-        <v>44306.792969455797</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E52" s="7">
-        <v>44299.792969467373</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="B53" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="9">
         <v>44306.792969478949</v>
       </c>
+      <c r="E53" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="F53" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="3">
+        <v>111</v>
+      </c>
+      <c r="D54" s="8">
         <v>44326.789682385483</v>
       </c>
-      <c r="F54" t="s">
-        <v>269</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" t="s">
-        <v>271</v>
+      <c r="E54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{FD864CB5-8B1C-40B7-80CD-CB2014F8BC17}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{D2C94C71-6297-450B-A626-D8D85684E71F}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{2DA729EF-04DA-400F-B8ED-ECFA58074CA8}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{795CCA1E-A3CA-4B24-BD69-BAA740E42C92}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{89B153D6-005C-43AA-8F3B-D6452ADD4369}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{3315913D-A2B7-46CB-9E89-6FD2F7C41B90}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{20C3C506-9B64-4F0A-B288-14137E429FFD}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{2293ADC3-E14E-4DA8-830F-8B962787BD96}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{C1833239-C2C5-45D6-8F71-62D09D2A4B2F}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{ABBBF41E-D5DA-4FF4-B843-641C02486E52}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{45A0C4C2-6BC3-414F-A953-941997CBD45D}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{6056730B-51C1-4CB1-9548-6A87ECB51C31}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{B9AEA3BF-27B1-4873-B8DC-49F01B80BD2F}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{6DC67B4D-7F85-4146-B0D2-BF71FF35792A}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{3D686C17-5CD9-437D-A28E-E5656BA53841}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{7BB42FC7-091A-4858-A29D-7CB95C972131}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{F62CD2F2-63AF-440E-9071-65C853DECA22}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{1E671D3A-8EAF-48FD-9A89-74160E56C2FF}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{A3EDE38E-CB35-455C-B7F6-284832FF24C7}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{99EE40A1-A000-499E-B780-E261FEE1C29B}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{6983AE35-2DE5-4962-A377-A4E243C507DF}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{7BD439F6-A630-4246-8011-45F39B44510D}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{0E933217-670B-40BD-BB83-CF813AD1E021}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{98A22CB4-130B-46F9-91EF-0049611F7B07}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{0F5A7BF6-0F7E-41F9-8824-467EDA9F413D}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{006C2AE7-F828-4D38-8ABE-92FBCA929EA5}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{100E9702-A7AA-45DD-B9B3-7927BFFA6AEC}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{7CA7BFC7-4286-4E15-8871-61010810E82E}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{978B18AA-F263-49A1-A7D8-4784AA856786}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{2AD550C2-A138-427B-BCAB-4159796FD9A9}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{146DE295-A4BB-41D0-B7F0-348A0521B0BA}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{B59C0141-18CE-489F-8D33-FB9721302726}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{E586D314-AB12-4AEA-8694-9A2D7EC7EDA1}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{7AB4A075-2C61-4096-AB0D-F367EE5DDE04}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{F2991D3D-BD52-4A34-83B6-CCB32A80F275}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{A477E916-859E-4191-AEFC-2863058F0CC1}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{89152E91-5DB2-4BDB-B0D2-6962A4F0EA46}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{A058B1C7-1D71-4E04-85F4-7F00AB3637E4}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{4F9DA32E-A44F-490D-9DF2-BB6FBDF290F8}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{930F6530-0B40-484D-ACAE-BD71A716E6A4}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{25493844-EB21-4DDB-9AA5-C090E39931F8}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{F2B658EC-32B1-40F2-86C3-75171CE6A587}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{60251193-5FFB-473C-A492-B9C368C91491}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{48C19BBC-E1F1-400D-9C07-ABFCD0BA0324}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{8E13BBF7-CCCA-4734-8470-A1BA04894D73}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{AC7D06FD-C971-482E-9E70-E3518D2345E1}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{AF86A9B6-3BF9-410C-A22C-6BC68203A47C}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{2C29C96D-4D78-4479-B343-0C1286EDCA54}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{7AC04CA0-00DC-4C8A-8CD7-114A431AEDD0}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{B014A0EB-EAFF-4360-9BF1-F1F338B4F158}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{6F9BCED3-E00B-4F97-8F3B-C1A3EBC56A3D}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{AD7F536D-5460-45DA-8504-802CA636BE66}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{AF551DD6-B7CB-40A3-BF44-1EFEF596B81E}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FD864CB5-8B1C-40B7-80CD-CB2014F8BC17}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{D2C94C71-6297-450B-A626-D8D85684E71F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{2DA729EF-04DA-400F-B8ED-ECFA58074CA8}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{795CCA1E-A3CA-4B24-BD69-BAA740E42C92}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{89B153D6-005C-43AA-8F3B-D6452ADD4369}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{3315913D-A2B7-46CB-9E89-6FD2F7C41B90}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{20C3C506-9B64-4F0A-B288-14137E429FFD}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{2293ADC3-E14E-4DA8-830F-8B962787BD96}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{C1833239-C2C5-45D6-8F71-62D09D2A4B2F}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{ABBBF41E-D5DA-4FF4-B843-641C02486E52}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{45A0C4C2-6BC3-414F-A953-941997CBD45D}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{6056730B-51C1-4CB1-9548-6A87ECB51C31}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{B9AEA3BF-27B1-4873-B8DC-49F01B80BD2F}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{6DC67B4D-7F85-4146-B0D2-BF71FF35792A}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{3D686C17-5CD9-437D-A28E-E5656BA53841}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{7BB42FC7-091A-4858-A29D-7CB95C972131}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{F62CD2F2-63AF-440E-9071-65C853DECA22}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{1E671D3A-8EAF-48FD-9A89-74160E56C2FF}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{A3EDE38E-CB35-455C-B7F6-284832FF24C7}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{99EE40A1-A000-499E-B780-E261FEE1C29B}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{6983AE35-2DE5-4962-A377-A4E243C507DF}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{7BD439F6-A630-4246-8011-45F39B44510D}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{0E933217-670B-40BD-BB83-CF813AD1E021}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{98A22CB4-130B-46F9-91EF-0049611F7B07}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{0F5A7BF6-0F7E-41F9-8824-467EDA9F413D}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{006C2AE7-F828-4D38-8ABE-92FBCA929EA5}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{100E9702-A7AA-45DD-B9B3-7927BFFA6AEC}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{7CA7BFC7-4286-4E15-8871-61010810E82E}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{978B18AA-F263-49A1-A7D8-4784AA856786}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{2AD550C2-A138-427B-BCAB-4159796FD9A9}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{146DE295-A4BB-41D0-B7F0-348A0521B0BA}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{B59C0141-18CE-489F-8D33-FB9721302726}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{E586D314-AB12-4AEA-8694-9A2D7EC7EDA1}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{7AB4A075-2C61-4096-AB0D-F367EE5DDE04}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{F2991D3D-BD52-4A34-83B6-CCB32A80F275}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{A477E916-859E-4191-AEFC-2863058F0CC1}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{89152E91-5DB2-4BDB-B0D2-6962A4F0EA46}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{A058B1C7-1D71-4E04-85F4-7F00AB3637E4}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{4F9DA32E-A44F-490D-9DF2-BB6FBDF290F8}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{930F6530-0B40-484D-ACAE-BD71A716E6A4}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{25493844-EB21-4DDB-9AA5-C090E39931F8}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{F2B658EC-32B1-40F2-86C3-75171CE6A587}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{60251193-5FFB-473C-A492-B9C368C91491}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{48C19BBC-E1F1-400D-9C07-ABFCD0BA0324}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{8E13BBF7-CCCA-4734-8470-A1BA04894D73}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{AC7D06FD-C971-482E-9E70-E3518D2345E1}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{AF86A9B6-3BF9-410C-A22C-6BC68203A47C}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{2C29C96D-4D78-4479-B343-0C1286EDCA54}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{7AC04CA0-00DC-4C8A-8CD7-114A431AEDD0}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{B014A0EB-EAFF-4360-9BF1-F1F338B4F158}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{6F9BCED3-E00B-4F97-8F3B-C1A3EBC56A3D}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{AD7F536D-5460-45DA-8504-802CA636BE66}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{AF551DD6-B7CB-40A3-BF44-1EFEF596B81E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>